--- a/todo.xlsx
+++ b/todo.xlsx
@@ -5,10 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Cover" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Login and Start Page" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Staff Access Related Pages" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
   <si>
     <t xml:space="preserve">Broad To Do</t>
   </si>
@@ -75,6 +77,72 @@
   </si>
   <si>
     <t xml:space="preserve">Ability to request and receive data in a safe and secure manner, manage data lifecycle, and enable secure data storage and access.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login Page and Start Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 cards to select user type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start Page should automatically redirect to respective Login page as per past Login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should allow special keyboard hit sequence(Ex: Ctrl +Alt+Del to enter Superuser Login Page)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login Page 1 – Staff Login Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Id – Emp ID (Do not remember EMPID)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login Page 2- Practiotioner Login Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Id – Emp ID (possibly Doctor’s Regn #)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login Page 3- Hospital Admin Login Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login Page 4- Admin Login Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staff Home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home Page should contain Registration and Discharge Cards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient Registration Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Field to enter Patient abha Number manually</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTP generated by abha, Patient needs to share the abha and staff needs to enter it in the system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For Registered Patients, earlier bypass demographic data retrieval through abha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discharge Cards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Doctor generated document and Billing Generated approval(optional)</t>
   </si>
 </sst>
 </file>
@@ -89,6 +157,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -110,11 +179,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -180,7 +251,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -215,6 +286,22 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -234,16 +321,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="56.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="73.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="73.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.6"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="1" width="11.52"/>
   </cols>
@@ -258,7 +345,8 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -272,7 +360,8 @@
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3"/>
@@ -282,7 +371,8 @@
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3"/>
@@ -292,7 +382,8 @@
       <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3"/>
@@ -302,7 +393,8 @@
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
@@ -312,7 +404,8 @@
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
@@ -324,7 +417,8 @@
       <c r="C7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="23.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5"/>
@@ -334,7 +428,8 @@
       <c r="C8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5"/>
@@ -344,7 +439,8 @@
       <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
@@ -354,7 +450,8 @@
       <c r="C10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
@@ -364,7 +461,8 @@
       <c r="C11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="23.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
@@ -374,7 +472,8 @@
       <c r="C12" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -389,4 +488,239 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="80.71"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10"/>
+      <c r="B3" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10"/>
+      <c r="B4" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10"/>
+      <c r="B7" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10"/>
+      <c r="B10" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10"/>
+      <c r="B13" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="10"/>
+      <c r="B16" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="84.08"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10"/>
+      <c r="B8" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10"/>
+      <c r="B9" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>